--- a/Cleaning the data/Customer Call List.xlsx
+++ b/Cleaning the data/Customer Call List.xlsx
@@ -252,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +263,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -294,21 +300,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -319,6 +328,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,16 +640,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -666,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+      <c r="J1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5">
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -694,10 +706,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+      <c r="J2" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -722,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+      <c r="J3" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -734,7 +746,7 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>7066950392</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -748,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
+      <c r="J4" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5">
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -776,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
+      <c r="J5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="5">
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -804,10 +816,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
+      <c r="J6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5">
         <v>1006</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -832,10 +844,10 @@
         <v>14</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
+      <c r="J7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5">
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -844,7 +856,7 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
@@ -858,10 +870,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
+      <c r="J8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5">
         <v>1008</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -886,10 +898,10 @@
         <v>19</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4">
+      <c r="J9" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5">
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -910,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4">
+      <c r="J10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="5">
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -938,10 +950,10 @@
         <v>14</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4">
+      <c r="J11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5">
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -950,7 +962,7 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
@@ -964,10 +976,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4">
+      <c r="J12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="5">
         <v>1012</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -976,7 +988,7 @@
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>7066950392</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -990,10 +1002,10 @@
         <v>14</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4">
+      <c r="J13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="5">
         <v>1013</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1018,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4">
+      <c r="J14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="5">
         <v>1014</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1046,10 +1058,10 @@
         <v>19</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4">
+      <c r="J15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="5">
         <v>1015</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1074,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
+      <c r="J16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1102,10 +1114,10 @@
         <v>19</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
+      <c r="J17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="5">
         <v>1017</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1130,10 +1142,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
+      <c r="J18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="5">
         <v>1018</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1142,7 +1154,7 @@
       <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>7066950392</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1156,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
+      <c r="J19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="5">
         <v>1019</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1184,10 +1196,10 @@
         <v>14</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
+      <c r="J20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="5">
         <v>1020</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1212,10 +1224,10 @@
         <v>14</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
+      <c r="J21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="5">
         <v>1020</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1240,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cleaning the data/Customer Call List.xlsx
+++ b/Cleaning the data/Customer Call List.xlsx
@@ -262,13 +262,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -311,13 +311,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -327,7 +324,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -640,19 +637,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +678,7 @@
       <c r="J1" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -706,10 +703,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -734,10 +731,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -746,7 +743,7 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>7066950392</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -760,10 +757,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -788,10 +785,10 @@
         <v>14</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -816,10 +813,10 @@
         <v>14</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -844,10 +841,10 @@
         <v>14</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -870,10 +867,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -898,10 +895,10 @@
         <v>19</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -922,10 +919,10 @@
         <v>19</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -950,10 +947,10 @@
         <v>14</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -976,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>1012</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -988,7 +985,7 @@
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>7066950392</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1002,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>1013</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1030,10 +1027,10 @@
         <v>19</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>1014</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1058,10 +1055,10 @@
         <v>19</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>1015</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1086,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1114,10 +1111,10 @@
         <v>19</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>1017</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1142,10 +1139,10 @@
         <v>19</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>1018</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1154,7 +1151,7 @@
       <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>7066950392</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1168,10 +1165,10 @@
         <v>14</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>1019</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1196,10 +1193,10 @@
         <v>14</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>1020</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1224,10 +1221,10 @@
         <v>14</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>1020</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1252,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
